--- a/Data processing/SMD_compcase_raw and transform.xlsx
+++ b/Data processing/SMD_compcase_raw and transform.xlsx
@@ -24044,7 +24044,7 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>Plant refuge</t>
+          <t>Neighbour effects</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
@@ -24124,7 +24124,7 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>Plant refuge</t>
+          <t>Neighbour effects</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
@@ -24204,7 +24204,7 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>Plant refuge</t>
+          <t>Neighbour effects</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
@@ -24284,7 +24284,7 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>Plant refuge</t>
+          <t>Neighbour effects</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
@@ -28752,7 +28752,7 @@
       </c>
       <c r="E357" t="inlineStr">
         <is>
-          <t>Broadleaves</t>
+          <t>Various</t>
         </is>
       </c>
       <c r="F357" t="inlineStr">
@@ -28832,7 +28832,7 @@
       </c>
       <c r="E358" t="inlineStr">
         <is>
-          <t>Broadleaves</t>
+          <t>Various</t>
         </is>
       </c>
       <c r="F358" t="inlineStr">
@@ -28992,7 +28992,7 @@
       </c>
       <c r="E360" t="inlineStr">
         <is>
-          <t>Conifers</t>
+          <t>Various</t>
         </is>
       </c>
       <c r="F360" t="inlineStr">
@@ -29072,7 +29072,7 @@
       </c>
       <c r="E361" t="inlineStr">
         <is>
-          <t>Conifers</t>
+          <t>Various</t>
         </is>
       </c>
       <c r="F361" t="inlineStr">
@@ -29152,7 +29152,7 @@
       </c>
       <c r="E362" t="inlineStr">
         <is>
-          <t>Broadleaves</t>
+          <t>Various</t>
         </is>
       </c>
       <c r="F362" t="inlineStr">
@@ -29312,7 +29312,7 @@
       </c>
       <c r="E364" t="inlineStr">
         <is>
-          <t>Conifers</t>
+          <t>Various</t>
         </is>
       </c>
       <c r="F364" t="inlineStr">
@@ -29392,7 +29392,7 @@
       </c>
       <c r="E365" t="inlineStr">
         <is>
-          <t>Broadleaves</t>
+          <t>Various</t>
         </is>
       </c>
       <c r="F365" t="inlineStr">
@@ -29472,7 +29472,7 @@
       </c>
       <c r="E366" t="inlineStr">
         <is>
-          <t>Conifers</t>
+          <t>Various</t>
         </is>
       </c>
       <c r="F366" t="inlineStr">
@@ -50338,7 +50338,7 @@
       </c>
       <c r="B629" t="inlineStr">
         <is>
-          <t>Plant refuge</t>
+          <t>Neighbour effects</t>
         </is>
       </c>
       <c r="C629" t="inlineStr">
@@ -50415,7 +50415,7 @@
       </c>
       <c r="B630" t="inlineStr">
         <is>
-          <t>Plant refuge</t>
+          <t>Neighbour effects</t>
         </is>
       </c>
       <c r="C630" t="inlineStr">
@@ -50492,7 +50492,7 @@
       </c>
       <c r="B631" t="inlineStr">
         <is>
-          <t>Plant refuge</t>
+          <t>Neighbour effects</t>
         </is>
       </c>
       <c r="C631" t="inlineStr">
@@ -50569,7 +50569,7 @@
       </c>
       <c r="B632" t="inlineStr">
         <is>
-          <t>Plant refuge</t>
+          <t>Neighbour effects</t>
         </is>
       </c>
       <c r="C632" t="inlineStr">
@@ -68964,7 +68964,7 @@
       </c>
       <c r="B854" t="inlineStr">
         <is>
-          <t>Plant refuge</t>
+          <t>Neighbour effects</t>
         </is>
       </c>
       <c r="C854" t="inlineStr">
@@ -69058,7 +69058,7 @@
       </c>
       <c r="B855" t="inlineStr">
         <is>
-          <t>Plant refuge</t>
+          <t>Neighbour effects</t>
         </is>
       </c>
       <c r="C855" t="inlineStr">
@@ -69152,7 +69152,7 @@
       </c>
       <c r="B856" t="inlineStr">
         <is>
-          <t>Plant refuge</t>
+          <t>Neighbour effects</t>
         </is>
       </c>
       <c r="C856" t="inlineStr">
@@ -73216,7 +73216,7 @@
       </c>
       <c r="E898" t="inlineStr">
         <is>
-          <t>Quercus sp. and Carya sp.</t>
+          <t>Various</t>
         </is>
       </c>
       <c r="F898" t="inlineStr">
@@ -73313,7 +73313,7 @@
       </c>
       <c r="E899" t="inlineStr">
         <is>
-          <t>Quercus sp. and Carya sp.</t>
+          <t>Various</t>
         </is>
       </c>
       <c r="F899" t="inlineStr">
@@ -73410,7 +73410,7 @@
       </c>
       <c r="E900" t="inlineStr">
         <is>
-          <t>Quercus sp. and Carya sp.</t>
+          <t>Various</t>
         </is>
       </c>
       <c r="F900" t="inlineStr">
@@ -73507,7 +73507,7 @@
       </c>
       <c r="E901" t="inlineStr">
         <is>
-          <t>Quercus sp. and Carya sp.</t>
+          <t>Various</t>
         </is>
       </c>
       <c r="F901" t="inlineStr">
@@ -73604,7 +73604,7 @@
       </c>
       <c r="E902" t="inlineStr">
         <is>
-          <t>Quercus sp. and Carya sp.</t>
+          <t>Various</t>
         </is>
       </c>
       <c r="F902" t="inlineStr">
@@ -73701,7 +73701,7 @@
       </c>
       <c r="E903" t="inlineStr">
         <is>
-          <t>Quercus sp. and Carya sp.</t>
+          <t>Various</t>
         </is>
       </c>
       <c r="F903" t="inlineStr">
@@ -73798,7 +73798,7 @@
       </c>
       <c r="E904" t="inlineStr">
         <is>
-          <t>Quercus sp. and Carya sp.</t>
+          <t>Various</t>
         </is>
       </c>
       <c r="F904" t="inlineStr">
@@ -73895,7 +73895,7 @@
       </c>
       <c r="E905" t="inlineStr">
         <is>
-          <t>Quercus sp. and Carya sp.</t>
+          <t>Various</t>
         </is>
       </c>
       <c r="F905" t="inlineStr">
@@ -73992,7 +73992,7 @@
       </c>
       <c r="E906" t="inlineStr">
         <is>
-          <t>Quercus sp. and Carya sp.</t>
+          <t>Various</t>
         </is>
       </c>
       <c r="F906" t="inlineStr">
@@ -74089,7 +74089,7 @@
       </c>
       <c r="E907" t="inlineStr">
         <is>
-          <t>Quercus sp. and Carya sp.</t>
+          <t>Various</t>
         </is>
       </c>
       <c r="F907" t="inlineStr">
@@ -74186,7 +74186,7 @@
       </c>
       <c r="E908" t="inlineStr">
         <is>
-          <t>Quercus sp. and Carya sp.</t>
+          <t>Various</t>
         </is>
       </c>
       <c r="F908" t="inlineStr">
@@ -74283,7 +74283,7 @@
       </c>
       <c r="E909" t="inlineStr">
         <is>
-          <t>Quercus sp. and Carya sp.</t>
+          <t>Various</t>
         </is>
       </c>
       <c r="F909" t="inlineStr">
@@ -84390,7 +84390,7 @@
       </c>
       <c r="B1014" t="inlineStr">
         <is>
-          <t>Plant refuge</t>
+          <t>Neighbour effects</t>
         </is>
       </c>
       <c r="C1014" t="inlineStr">
@@ -84487,7 +84487,7 @@
       </c>
       <c r="B1015" t="inlineStr">
         <is>
-          <t>Plant refuge</t>
+          <t>Neighbour effects</t>
         </is>
       </c>
       <c r="C1015" t="inlineStr">
@@ -84584,7 +84584,7 @@
       </c>
       <c r="B1016" t="inlineStr">
         <is>
-          <t>Plant refuge</t>
+          <t>Neighbour effects</t>
         </is>
       </c>
       <c r="C1016" t="inlineStr">
@@ -84681,7 +84681,7 @@
       </c>
       <c r="B1017" t="inlineStr">
         <is>
-          <t>Plant refuge</t>
+          <t>Neighbour effects</t>
         </is>
       </c>
       <c r="C1017" t="inlineStr">
@@ -84778,7 +84778,7 @@
       </c>
       <c r="B1018" t="inlineStr">
         <is>
-          <t>Plant refuge</t>
+          <t>Neighbour effects</t>
         </is>
       </c>
       <c r="C1018" t="inlineStr">
@@ -84875,7 +84875,7 @@
       </c>
       <c r="B1019" t="inlineStr">
         <is>
-          <t>Plant refuge</t>
+          <t>Neighbour effects</t>
         </is>
       </c>
       <c r="C1019" t="inlineStr">
@@ -84972,7 +84972,7 @@
       </c>
       <c r="B1020" t="inlineStr">
         <is>
-          <t>Plant refuge</t>
+          <t>Neighbour effects</t>
         </is>
       </c>
       <c r="C1020" t="inlineStr">
@@ -85069,7 +85069,7 @@
       </c>
       <c r="B1021" t="inlineStr">
         <is>
-          <t>Plant refuge</t>
+          <t>Neighbour effects</t>
         </is>
       </c>
       <c r="C1021" t="inlineStr">
@@ -85166,7 +85166,7 @@
       </c>
       <c r="B1022" t="inlineStr">
         <is>
-          <t>Plant refuge</t>
+          <t>Neighbour effects</t>
         </is>
       </c>
       <c r="C1022" t="inlineStr">
@@ -85263,7 +85263,7 @@
       </c>
       <c r="B1023" t="inlineStr">
         <is>
-          <t>Plant refuge</t>
+          <t>Neighbour effects</t>
         </is>
       </c>
       <c r="C1023" t="inlineStr">
@@ -85360,7 +85360,7 @@
       </c>
       <c r="B1024" t="inlineStr">
         <is>
-          <t>Plant refuge</t>
+          <t>Neighbour effects</t>
         </is>
       </c>
       <c r="C1024" t="inlineStr">
@@ -85457,7 +85457,7 @@
       </c>
       <c r="B1025" t="inlineStr">
         <is>
-          <t>Plant refuge</t>
+          <t>Neighbour effects</t>
         </is>
       </c>
       <c r="C1025" t="inlineStr">
